--- a/Data_file/วัตถุดิบ1-13.xlsx
+++ b/Data_file/วัตถุดิบ1-13.xlsx
@@ -252,9 +252,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot;-&quot;* #,##0.00&quot; &quot;;&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -355,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,10 +388,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -674,18 +677,19 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I872" sqref="I872"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16" style="13" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" thickBot="1">
@@ -713,7 +717,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1833,8 +1837,8 @@
       <c r="H36" s="10">
         <v>1</v>
       </c>
-      <c r="I36" s="13">
-        <v>0</v>
+      <c r="I36" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J36" s="11">
         <v>12035</v>
@@ -2057,8 +2061,8 @@
       <c r="H43" s="10">
         <v>1</v>
       </c>
-      <c r="I43" s="13">
-        <v>0</v>
+      <c r="I43" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J43" s="11">
         <v>12042</v>
@@ -2217,8 +2221,8 @@
       <c r="H48" s="10">
         <v>2</v>
       </c>
-      <c r="I48" s="13">
-        <v>0</v>
+      <c r="I48" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J48" s="11">
         <v>12047</v>
@@ -2249,8 +2253,8 @@
       <c r="H49" s="10">
         <v>1</v>
       </c>
-      <c r="I49" s="13">
-        <v>0</v>
+      <c r="I49" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J49" s="11">
         <v>12048</v>
@@ -2281,8 +2285,8 @@
       <c r="H50" s="10">
         <v>1</v>
       </c>
-      <c r="I50" s="13">
-        <v>0</v>
+      <c r="I50" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J50" s="11">
         <v>12049</v>
@@ -2313,8 +2317,8 @@
       <c r="H51" s="10">
         <v>1</v>
       </c>
-      <c r="I51" s="13">
-        <v>0</v>
+      <c r="I51" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J51" s="11">
         <v>12050</v>
@@ -2377,8 +2381,8 @@
       <c r="H53" s="10">
         <v>1</v>
       </c>
-      <c r="I53" s="13">
-        <v>0</v>
+      <c r="I53" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J53" s="11">
         <v>12052</v>
@@ -2409,8 +2413,8 @@
       <c r="H54" s="10">
         <v>1</v>
       </c>
-      <c r="I54" s="13">
-        <v>0</v>
+      <c r="I54" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J54" s="11">
         <v>12053</v>
@@ -2441,8 +2445,8 @@
       <c r="H55" s="10">
         <v>1</v>
       </c>
-      <c r="I55" s="13">
-        <v>0</v>
+      <c r="I55" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J55" s="11">
         <v>12054</v>
@@ -2473,8 +2477,8 @@
       <c r="H56" s="10">
         <v>2</v>
       </c>
-      <c r="I56" s="13">
-        <v>0</v>
+      <c r="I56" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J56" s="11">
         <v>12055</v>
@@ -2505,8 +2509,8 @@
       <c r="H57" s="10">
         <v>1</v>
       </c>
-      <c r="I57" s="13">
-        <v>0</v>
+      <c r="I57" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J57" s="11">
         <v>12056</v>
@@ -2537,8 +2541,8 @@
       <c r="H58" s="10">
         <v>2</v>
       </c>
-      <c r="I58" s="13">
-        <v>0</v>
+      <c r="I58" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J58" s="11">
         <v>12057</v>
@@ -2569,8 +2573,8 @@
       <c r="H59" s="10">
         <v>1</v>
       </c>
-      <c r="I59" s="13">
-        <v>0</v>
+      <c r="I59" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J59" s="11">
         <v>12058</v>
@@ -2601,8 +2605,8 @@
       <c r="H60" s="10">
         <v>1</v>
       </c>
-      <c r="I60" s="13">
-        <v>0</v>
+      <c r="I60" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J60" s="11">
         <v>12059</v>
@@ -2633,8 +2637,8 @@
       <c r="H61" s="10">
         <v>1</v>
       </c>
-      <c r="I61" s="13">
-        <v>0</v>
+      <c r="I61" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J61" s="11">
         <v>12060</v>
@@ -2665,8 +2669,8 @@
       <c r="H62" s="10">
         <v>1</v>
       </c>
-      <c r="I62" s="13">
-        <v>0</v>
+      <c r="I62" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J62" s="11">
         <v>12061</v>
@@ -2697,8 +2701,8 @@
       <c r="H63" s="10">
         <v>1</v>
       </c>
-      <c r="I63" s="13">
-        <v>0</v>
+      <c r="I63" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J63" s="11">
         <v>12062</v>
@@ -5353,8 +5357,8 @@
       <c r="H146" s="10">
         <v>1</v>
       </c>
-      <c r="I146" s="13">
-        <v>0</v>
+      <c r="I146" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J146" s="11">
         <v>12145</v>
@@ -5577,8 +5581,8 @@
       <c r="H153" s="10">
         <v>1</v>
       </c>
-      <c r="I153" s="13">
-        <v>0</v>
+      <c r="I153" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J153" s="11">
         <v>12152</v>
@@ -5737,8 +5741,8 @@
       <c r="H158" s="10">
         <v>2</v>
       </c>
-      <c r="I158" s="13">
-        <v>0</v>
+      <c r="I158" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J158" s="11">
         <v>12157</v>
@@ -5769,8 +5773,8 @@
       <c r="H159" s="10">
         <v>1</v>
       </c>
-      <c r="I159" s="13">
-        <v>0</v>
+      <c r="I159" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J159" s="11">
         <v>12158</v>
@@ -5801,8 +5805,8 @@
       <c r="H160" s="10">
         <v>1</v>
       </c>
-      <c r="I160" s="13">
-        <v>0</v>
+      <c r="I160" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J160" s="11">
         <v>12159</v>
@@ -5833,8 +5837,8 @@
       <c r="H161" s="10">
         <v>1</v>
       </c>
-      <c r="I161" s="13">
-        <v>0</v>
+      <c r="I161" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J161" s="11">
         <v>12160</v>
@@ -5897,8 +5901,8 @@
       <c r="H163" s="10">
         <v>1</v>
       </c>
-      <c r="I163" s="13">
-        <v>0</v>
+      <c r="I163" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J163" s="11">
         <v>12162</v>
@@ -5929,8 +5933,8 @@
       <c r="H164" s="10">
         <v>1</v>
       </c>
-      <c r="I164" s="13">
-        <v>0</v>
+      <c r="I164" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J164" s="11">
         <v>12163</v>
@@ -5961,8 +5965,8 @@
       <c r="H165" s="10">
         <v>1</v>
       </c>
-      <c r="I165" s="13">
-        <v>0</v>
+      <c r="I165" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J165" s="11">
         <v>12164</v>
@@ -5993,8 +5997,8 @@
       <c r="H166" s="10">
         <v>2</v>
       </c>
-      <c r="I166" s="13">
-        <v>0</v>
+      <c r="I166" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J166" s="11">
         <v>12165</v>
@@ -6025,8 +6029,8 @@
       <c r="H167" s="10">
         <v>1</v>
       </c>
-      <c r="I167" s="13">
-        <v>0</v>
+      <c r="I167" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J167" s="11">
         <v>12166</v>
@@ -6057,8 +6061,8 @@
       <c r="H168" s="10">
         <v>2</v>
       </c>
-      <c r="I168" s="13">
-        <v>0</v>
+      <c r="I168" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J168" s="11">
         <v>12167</v>
@@ -6089,8 +6093,8 @@
       <c r="H169" s="10">
         <v>1</v>
       </c>
-      <c r="I169" s="13">
-        <v>0</v>
+      <c r="I169" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J169" s="11">
         <v>12168</v>
@@ -6121,8 +6125,8 @@
       <c r="H170" s="10">
         <v>1</v>
       </c>
-      <c r="I170" s="13">
-        <v>0</v>
+      <c r="I170" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J170" s="11">
         <v>12169</v>
@@ -6153,8 +6157,8 @@
       <c r="H171" s="10">
         <v>1</v>
       </c>
-      <c r="I171" s="13">
-        <v>0</v>
+      <c r="I171" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J171" s="11">
         <v>12170</v>
@@ -6185,8 +6189,8 @@
       <c r="H172" s="10">
         <v>1</v>
       </c>
-      <c r="I172" s="13">
-        <v>0</v>
+      <c r="I172" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J172" s="11">
         <v>12171</v>
@@ -6217,8 +6221,8 @@
       <c r="H173" s="10">
         <v>1</v>
       </c>
-      <c r="I173" s="13">
-        <v>0</v>
+      <c r="I173" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J173" s="11">
         <v>12172</v>
@@ -24041,8 +24045,8 @@
       <c r="H730" s="10">
         <v>108</v>
       </c>
-      <c r="I730" s="13">
-        <v>0</v>
+      <c r="I730" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J730" s="11">
         <v>12729</v>
@@ -25833,8 +25837,8 @@
       <c r="H786" s="10">
         <v>85</v>
       </c>
-      <c r="I786" s="13">
-        <v>0</v>
+      <c r="I786" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J786" s="11">
         <v>12785</v>
@@ -27177,8 +27181,8 @@
       <c r="H828" s="10">
         <v>104</v>
       </c>
-      <c r="I828" s="13">
-        <v>0</v>
+      <c r="I828" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J828" s="11">
         <v>12827</v>
@@ -28585,8 +28589,8 @@
       <c r="H872" s="10">
         <v>14</v>
       </c>
-      <c r="I872" s="13">
-        <v>0</v>
+      <c r="I872" s="15">
+        <v>1E-4</v>
       </c>
       <c r="J872" s="11">
         <v>12871</v>
